--- a/Code/Results/Cases/Case_5_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_223/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9802675805714092</v>
+        <v>1.016575399075721</v>
       </c>
       <c r="D2">
-        <v>1.002207745061353</v>
+        <v>1.022036165938839</v>
       </c>
       <c r="E2">
-        <v>0.9893992948514099</v>
+        <v>1.018079921344615</v>
       </c>
       <c r="F2">
-        <v>0.95604367190586</v>
+        <v>1.01492247086263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035670764741049</v>
+        <v>1.026428262455471</v>
       </c>
       <c r="J2">
-        <v>1.003054940456324</v>
+        <v>1.021794426393935</v>
       </c>
       <c r="K2">
-        <v>1.01363640794118</v>
+        <v>1.024871731696536</v>
       </c>
       <c r="L2">
-        <v>1.001008316964117</v>
+        <v>1.020927201768244</v>
       </c>
       <c r="M2">
-        <v>0.9681513660725125</v>
+        <v>1.017779172051364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.985179426582297</v>
+        <v>1.01758499701192</v>
       </c>
       <c r="D3">
-        <v>1.005567251192031</v>
+        <v>1.022738956851938</v>
       </c>
       <c r="E3">
-        <v>0.9933269617775676</v>
+        <v>1.01893769224147</v>
       </c>
       <c r="F3">
-        <v>0.9637628577867351</v>
+        <v>1.016575723826187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036612985962714</v>
+        <v>1.02655242823776</v>
       </c>
       <c r="J3">
-        <v>1.006082434368431</v>
+        <v>1.022439219096827</v>
       </c>
       <c r="K3">
-        <v>1.016129390168663</v>
+        <v>1.025381386959106</v>
       </c>
       <c r="L3">
-        <v>1.004045943479249</v>
+        <v>1.021590562361069</v>
       </c>
       <c r="M3">
-        <v>0.9748814029521113</v>
+        <v>1.019235123611414</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9882821199686096</v>
+        <v>1.018238117224918</v>
       </c>
       <c r="D4">
-        <v>1.007691343971026</v>
+        <v>1.023193354322733</v>
       </c>
       <c r="E4">
-        <v>0.9958142553644662</v>
+        <v>1.019492974428462</v>
       </c>
       <c r="F4">
-        <v>0.9686229465953423</v>
+        <v>1.017645160628615</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037196145220992</v>
+        <v>1.026631240251872</v>
       </c>
       <c r="J4">
-        <v>1.007990395348234</v>
+        <v>1.022855740859572</v>
       </c>
       <c r="K4">
-        <v>1.017697819172309</v>
+        <v>1.025710143057602</v>
       </c>
       <c r="L4">
-        <v>1.005963462544756</v>
+        <v>1.022019413185946</v>
       </c>
       <c r="M4">
-        <v>0.9791154212270207</v>
+        <v>1.020176446575417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9895691719470908</v>
+        <v>1.018512652216644</v>
       </c>
       <c r="D5">
-        <v>1.008572853297664</v>
+        <v>1.023384297700813</v>
       </c>
       <c r="E5">
-        <v>0.9968474865985726</v>
+        <v>1.01972647432373</v>
       </c>
       <c r="F5">
-        <v>0.9706356584441801</v>
+        <v>1.018094680237479</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0374351198109</v>
+        <v>1.026664006033661</v>
       </c>
       <c r="J5">
-        <v>1.008780771439655</v>
+        <v>1.023030678983413</v>
       </c>
       <c r="K5">
-        <v>1.018346867992077</v>
+        <v>1.025848106794078</v>
       </c>
       <c r="L5">
-        <v>1.006758549617773</v>
+        <v>1.022199609524285</v>
       </c>
       <c r="M5">
-        <v>0.980868026459577</v>
+        <v>1.020571999226914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9897842796412896</v>
+        <v>1.018558745720429</v>
       </c>
       <c r="D6">
-        <v>1.008720203059752</v>
+        <v>1.023416352922965</v>
       </c>
       <c r="E6">
-        <v>0.9970202570254678</v>
+        <v>1.019765683462125</v>
       </c>
       <c r="F6">
-        <v>0.9709718642347462</v>
+        <v>1.018170152560844</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03747488651636</v>
+        <v>1.026669486040007</v>
       </c>
       <c r="J6">
-        <v>1.008912804680721</v>
+        <v>1.023060042048678</v>
       </c>
       <c r="K6">
-        <v>1.018455251669716</v>
+        <v>1.025871257127548</v>
       </c>
       <c r="L6">
-        <v>1.006891413768334</v>
+        <v>1.022229859863914</v>
       </c>
       <c r="M6">
-        <v>0.9811607336659096</v>
+        <v>1.020638403905121</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9882993846849308</v>
+        <v>1.018241785718215</v>
       </c>
       <c r="D7">
-        <v>1.007703167198743</v>
+        <v>1.023195906053109</v>
       </c>
       <c r="E7">
-        <v>0.9958281095897743</v>
+        <v>1.019496094232499</v>
       </c>
       <c r="F7">
-        <v>0.9686499580145932</v>
+        <v>1.017651167404378</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037199362507602</v>
+        <v>1.026631679511256</v>
       </c>
       <c r="J7">
-        <v>1.008001001867061</v>
+        <v>1.022858079049406</v>
       </c>
       <c r="K7">
-        <v>1.017706531853314</v>
+        <v>1.025711987499738</v>
       </c>
       <c r="L7">
-        <v>1.005974129322348</v>
+        <v>1.022021821341536</v>
       </c>
       <c r="M7">
-        <v>0.9791389452513563</v>
+        <v>1.020181732667243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9819437006887073</v>
+        <v>1.016916630497611</v>
       </c>
       <c r="D8">
-        <v>1.003353681842365</v>
+        <v>1.02227375081335</v>
       </c>
       <c r="E8">
-        <v>0.9907382219242495</v>
+        <v>1.018369757953472</v>
       </c>
       <c r="F8">
-        <v>0.9586814284018876</v>
+        <v>1.015481267661749</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035994786351827</v>
+        <v>1.026470541901546</v>
       </c>
       <c r="J8">
-        <v>1.004088965786482</v>
+        <v>1.022012482806205</v>
       </c>
       <c r="K8">
-        <v>1.014488416207254</v>
+        <v>1.025044184327718</v>
       </c>
       <c r="L8">
-        <v>1.002045128858295</v>
+        <v>1.021151468073679</v>
       </c>
       <c r="M8">
-        <v>0.9704517825961901</v>
+        <v>1.018271381809822</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9701272806431698</v>
+        <v>1.014580293964472</v>
       </c>
       <c r="D9">
-        <v>0.9952867052322889</v>
+        <v>1.020646085865126</v>
       </c>
       <c r="E9">
-        <v>0.9813279806095638</v>
+        <v>1.016386895540633</v>
       </c>
       <c r="F9">
-        <v>0.9399950589056689</v>
+        <v>1.011654798108463</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033661050714429</v>
+        <v>1.026174872547915</v>
       </c>
       <c r="J9">
-        <v>0.9967808889891716</v>
+        <v>1.02051703326557</v>
       </c>
       <c r="K9">
-        <v>1.008456718043123</v>
+        <v>1.023859577264158</v>
       </c>
       <c r="L9">
-        <v>0.9947314413584628</v>
+        <v>1.019614809869173</v>
       </c>
       <c r="M9">
-        <v>0.9541429691401979</v>
+        <v>1.014898893402669</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9617768270802625</v>
+        <v>1.013021841066643</v>
       </c>
       <c r="D10">
-        <v>0.9896047169126012</v>
+        <v>1.019559166275683</v>
       </c>
       <c r="E10">
-        <v>0.9747175015384603</v>
+        <v>1.015066243486943</v>
       </c>
       <c r="F10">
-        <v>0.9266452860190486</v>
+        <v>1.009101476840297</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03195096257896</v>
+        <v>1.025969883242132</v>
       </c>
       <c r="J10">
-        <v>0.9915935654133701</v>
+        <v>1.019516401444701</v>
       </c>
       <c r="K10">
-        <v>1.004164232696493</v>
+        <v>1.023064553125041</v>
       </c>
       <c r="L10">
-        <v>0.9895587529035746</v>
+        <v>1.018588341998398</v>
       </c>
       <c r="M10">
-        <v>0.9424785719391381</v>
+        <v>1.012646016316115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9580341576590217</v>
+        <v>1.012346787360823</v>
       </c>
       <c r="D11">
-        <v>0.9870638357927901</v>
+        <v>1.019088090513704</v>
       </c>
       <c r="E11">
-        <v>0.9717649711941221</v>
+        <v>1.014494680898912</v>
       </c>
       <c r="F11">
-        <v>0.9206168950894099</v>
+        <v>1.007995207076624</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031170754648403</v>
+        <v>1.02587925339289</v>
       </c>
       <c r="J11">
-        <v>0.9892633288279022</v>
+        <v>1.01908223903227</v>
       </c>
       <c r="K11">
-        <v>1.002233903327469</v>
+        <v>1.022719042840219</v>
       </c>
       <c r="L11">
-        <v>0.987239752661586</v>
+        <v>1.018143383010055</v>
       </c>
       <c r="M11">
-        <v>0.9372090220367409</v>
+        <v>1.011669331470965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.956623498871882</v>
+        <v>1.012096005985239</v>
       </c>
       <c r="D12">
-        <v>0.9861071342657063</v>
+        <v>1.018913047064612</v>
       </c>
       <c r="E12">
-        <v>0.970653751182539</v>
+        <v>1.014282420028335</v>
       </c>
       <c r="F12">
-        <v>0.918336892316821</v>
+        <v>1.007584180848626</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030874680993441</v>
+        <v>1.025845308785465</v>
       </c>
       <c r="J12">
-        <v>0.9883842481585582</v>
+        <v>1.01892083842139</v>
       </c>
       <c r="K12">
-        <v>1.001505429220109</v>
+        <v>1.022590515406041</v>
       </c>
       <c r="L12">
-        <v>0.9863656352959735</v>
+        <v>1.017978030978306</v>
       </c>
       <c r="M12">
-        <v>0.9352157747116699</v>
+        <v>1.011306363467904</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9569270402073646</v>
+        <v>1.012149801108823</v>
       </c>
       <c r="D13">
-        <v>0.9863129478182577</v>
+        <v>1.018950597416832</v>
       </c>
       <c r="E13">
-        <v>0.970892785429345</v>
+        <v>1.014327948770025</v>
       </c>
       <c r="F13">
-        <v>0.9188278685347053</v>
+        <v>1.007672352411251</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030938478702125</v>
+        <v>1.025852602718548</v>
       </c>
       <c r="J13">
-        <v>0.9885734414894259</v>
+        <v>1.018955465448314</v>
       </c>
       <c r="K13">
-        <v>1.001662220194471</v>
+        <v>1.022618093558412</v>
       </c>
       <c r="L13">
-        <v>0.9865537273100492</v>
+        <v>1.018013502929098</v>
       </c>
       <c r="M13">
-        <v>0.9356450105475003</v>
+        <v>1.01138422977092</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9579179782817648</v>
+        <v>1.012326058443739</v>
       </c>
       <c r="D14">
-        <v>0.9869850227586172</v>
+        <v>1.019073622692163</v>
       </c>
       <c r="E14">
-        <v>0.9716734195810774</v>
+        <v>1.014477134475953</v>
       </c>
       <c r="F14">
-        <v>0.9204292836231657</v>
+        <v>1.007961233780678</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031146410862945</v>
+        <v>1.02587645324605</v>
       </c>
       <c r="J14">
-        <v>0.9891909452062634</v>
+        <v>1.019068900332674</v>
       </c>
       <c r="K14">
-        <v>1.002173925596311</v>
+        <v>1.022708422590504</v>
       </c>
       <c r="L14">
-        <v>0.9871677628646162</v>
+        <v>1.018129716481771</v>
       </c>
       <c r="M14">
-        <v>0.9370450108750912</v>
+        <v>1.011639332214027</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9585257716598972</v>
+        <v>1.012434651545663</v>
       </c>
       <c r="D15">
-        <v>0.9873973747627239</v>
+        <v>1.019149414020556</v>
       </c>
       <c r="E15">
-        <v>0.972152439273021</v>
+        <v>1.014569058388275</v>
       </c>
       <c r="F15">
-        <v>0.921410449233248</v>
+        <v>1.008139208510017</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031273684384181</v>
+        <v>1.02589111115538</v>
       </c>
       <c r="J15">
-        <v>0.9895695887855999</v>
+        <v>1.019138773612734</v>
       </c>
       <c r="K15">
-        <v>1.002487662943472</v>
+        <v>1.022764052164874</v>
       </c>
       <c r="L15">
-        <v>0.9875443759522879</v>
+        <v>1.018201309603701</v>
       </c>
       <c r="M15">
-        <v>0.9379027427547397</v>
+        <v>1.011796484677385</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9620224261851291</v>
+        <v>1.013066637129772</v>
       </c>
       <c r="D16">
-        <v>0.9897715830878281</v>
+        <v>1.019590420914886</v>
       </c>
       <c r="E16">
-        <v>0.9749114709806929</v>
+        <v>1.015104182255978</v>
       </c>
       <c r="F16">
-        <v>0.9270398553751504</v>
+        <v>1.009174881589792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032001880412026</v>
+        <v>1.025975858689142</v>
       </c>
       <c r="J16">
-        <v>0.9917463697635078</v>
+        <v>1.019545196717251</v>
       </c>
       <c r="K16">
-        <v>1.004290774671294</v>
+        <v>1.023087456941997</v>
       </c>
       <c r="L16">
-        <v>0.9897109191685246</v>
+        <v>1.018617862052851</v>
       </c>
       <c r="M16">
-        <v>0.9428234347679945</v>
+        <v>1.012710810306764</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9641808723418109</v>
+        <v>1.013463001596714</v>
       </c>
       <c r="D17">
-        <v>0.9912387552173593</v>
+        <v>1.019866937144499</v>
       </c>
       <c r="E17">
-        <v>0.9766173459225287</v>
+        <v>1.01543992826175</v>
       </c>
       <c r="F17">
-        <v>0.9305023052117746</v>
+        <v>1.009824347977968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032447819468292</v>
+        <v>1.026028518441906</v>
       </c>
       <c r="J17">
-        <v>0.9930886922802199</v>
+        <v>1.019799898423503</v>
       </c>
       <c r="K17">
-        <v>1.005402164674596</v>
+        <v>1.023289982784614</v>
       </c>
       <c r="L17">
-        <v>0.9910481671228127</v>
+        <v>1.018879022363394</v>
       </c>
       <c r="M17">
-        <v>0.9458494545075434</v>
+        <v>1.013284023073536</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.965427718755661</v>
+        <v>1.013694171861702</v>
       </c>
       <c r="D18">
-        <v>0.9920868192354273</v>
+        <v>1.020028182660723</v>
       </c>
       <c r="E18">
-        <v>0.9776037267629962</v>
+        <v>1.015635791087851</v>
       </c>
       <c r="F18">
-        <v>0.9324982420598905</v>
+        <v>1.010203107162639</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032704116899097</v>
+        <v>1.026059053736506</v>
       </c>
       <c r="J18">
-        <v>0.9938635979090467</v>
+        <v>1.019948376552272</v>
       </c>
       <c r="K18">
-        <v>1.006043556938428</v>
+        <v>1.023407991170436</v>
       </c>
       <c r="L18">
-        <v>0.9918205815759937</v>
+        <v>1.01903130535936</v>
       </c>
       <c r="M18">
-        <v>0.9475935943665057</v>
+        <v>1.013618255584452</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.965850842533406</v>
+        <v>1.013772991184794</v>
       </c>
       <c r="D19">
-        <v>0.9923747020452143</v>
+        <v>1.020083156136956</v>
       </c>
       <c r="E19">
-        <v>0.9779386218075088</v>
+        <v>1.015702579988222</v>
       </c>
       <c r="F19">
-        <v>0.9331748939544899</v>
+        <v>1.010332243731739</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032790869865811</v>
+        <v>1.026069434909006</v>
       </c>
       <c r="J19">
-        <v>0.9941264811379029</v>
+        <v>1.019998989352903</v>
       </c>
       <c r="K19">
-        <v>1.006261111106491</v>
+        <v>1.023448208378639</v>
       </c>
       <c r="L19">
-        <v>0.9920826933697628</v>
+        <v>1.019083221904484</v>
       </c>
       <c r="M19">
-        <v>0.948184844321698</v>
+        <v>1.013732201324003</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9639505567459578</v>
+        <v>1.013420477769123</v>
       </c>
       <c r="D20">
-        <v>0.9910821448400294</v>
+        <v>1.019837273885157</v>
       </c>
       <c r="E20">
-        <v>0.9764352207564594</v>
+        <v>1.015403903013792</v>
       </c>
       <c r="F20">
-        <v>0.9301332877543411</v>
+        <v>1.009754673016978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032400370719305</v>
+        <v>1.02602288719253</v>
       </c>
       <c r="J20">
-        <v>0.9929455124091677</v>
+        <v>1.019772580145495</v>
       </c>
       <c r="K20">
-        <v>1.005283637700426</v>
+        <v>1.023268266248874</v>
       </c>
       <c r="L20">
-        <v>0.9909054828566833</v>
+        <v>1.018851007240016</v>
       </c>
       <c r="M20">
-        <v>0.9455269722951096</v>
+        <v>1.013222534488014</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9576267486618343</v>
+        <v>1.012274156066409</v>
       </c>
       <c r="D21">
-        <v>0.9867874765690818</v>
+        <v>1.019037396607302</v>
       </c>
       <c r="E21">
-        <v>0.9714439514130325</v>
+        <v>1.014433201822409</v>
       </c>
       <c r="F21">
-        <v>0.9199588636219104</v>
+        <v>1.007876168477913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031085355678032</v>
+        <v>1.025869437607231</v>
       </c>
       <c r="J21">
-        <v>0.989009486830237</v>
+        <v>1.019035500274498</v>
       </c>
       <c r="K21">
-        <v>1.002023563555615</v>
+        <v>1.022681828176307</v>
       </c>
       <c r="L21">
-        <v>0.9869873035120267</v>
+        <v>1.018095496547077</v>
       </c>
       <c r="M21">
-        <v>0.9366337630128092</v>
+        <v>1.011564216034856</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9535315094734939</v>
+        <v>1.011553207013932</v>
       </c>
       <c r="D22">
-        <v>0.9840121205029866</v>
+        <v>1.018534106318378</v>
       </c>
       <c r="E22">
-        <v>0.9682211804300619</v>
+        <v>1.013823131584085</v>
       </c>
       <c r="F22">
-        <v>0.913323691806245</v>
+        <v>1.006694446813995</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030222105332345</v>
+        <v>1.025771334037443</v>
       </c>
       <c r="J22">
-        <v>0.9864559711619156</v>
+        <v>1.018571296915223</v>
       </c>
       <c r="K22">
-        <v>0.9999070960418113</v>
+        <v>1.022312014567588</v>
       </c>
       <c r="L22">
-        <v>0.9844496090595829</v>
+        <v>1.017620045934155</v>
       </c>
       <c r="M22">
-        <v>0.9308327367028378</v>
+        <v>1.01052049852883</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9557142816845614</v>
+        <v>1.011935416200788</v>
       </c>
       <c r="D23">
-        <v>0.9854908018837042</v>
+        <v>1.018800945628863</v>
       </c>
       <c r="E23">
-        <v>0.9699380009643371</v>
+        <v>1.014146517982557</v>
       </c>
       <c r="F23">
-        <v>0.9168650021153639</v>
+        <v>1.007320962519004</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030683294786982</v>
+        <v>1.025823494501011</v>
       </c>
       <c r="J23">
-        <v>0.9878174302906446</v>
+        <v>1.01881745334963</v>
       </c>
       <c r="K23">
-        <v>1.001035654315017</v>
+        <v>1.02250816381488</v>
       </c>
       <c r="L23">
-        <v>0.9858022251364957</v>
+        <v>1.01787213235877</v>
       </c>
       <c r="M23">
-        <v>0.9339289463782475</v>
+        <v>1.011073896521112</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9640546638586601</v>
+        <v>1.013439692525261</v>
       </c>
       <c r="D24">
-        <v>0.9911529341037942</v>
+        <v>1.019850677563984</v>
       </c>
       <c r="E24">
-        <v>0.9765175418684593</v>
+        <v>1.015420181186343</v>
       </c>
       <c r="F24">
-        <v>0.9303001036865778</v>
+        <v>1.009786156327183</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032421822522334</v>
+        <v>1.026025432268605</v>
       </c>
       <c r="J24">
-        <v>0.9930102340358997</v>
+        <v>1.019784924361976</v>
       </c>
       <c r="K24">
-        <v>1.005337216094584</v>
+        <v>1.023278079391863</v>
       </c>
       <c r="L24">
-        <v>0.9909699790963972</v>
+        <v>1.018863666214571</v>
       </c>
       <c r="M24">
-        <v>0.9456727524462215</v>
+        <v>1.013250318879863</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9732608701021001</v>
+        <v>1.015184446388862</v>
       </c>
       <c r="D25">
-        <v>0.9974231700225686</v>
+        <v>1.021067196074201</v>
       </c>
       <c r="E25">
-        <v>0.9838169694378668</v>
+        <v>1.016899290678068</v>
       </c>
       <c r="F25">
-        <v>0.9449720824058064</v>
+        <v>1.012644412586164</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034290593354257</v>
+        <v>1.026252698885156</v>
       </c>
       <c r="J25">
-        <v>0.9987228816859449</v>
+        <v>1.020904286338894</v>
       </c>
       <c r="K25">
-        <v>1.010061620098241</v>
+        <v>1.024166757786121</v>
       </c>
       <c r="L25">
-        <v>0.9966718107649646</v>
+        <v>1.020012428806697</v>
       </c>
       <c r="M25">
-        <v>0.9584892548879983</v>
+        <v>1.015771536848917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_223/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016575399075721</v>
+        <v>0.9802675805714089</v>
       </c>
       <c r="D2">
-        <v>1.022036165938839</v>
+        <v>1.002207745061353</v>
       </c>
       <c r="E2">
-        <v>1.018079921344615</v>
+        <v>0.9893992948514099</v>
       </c>
       <c r="F2">
-        <v>1.01492247086263</v>
+        <v>0.9560436719058609</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026428262455471</v>
+        <v>1.035670764741049</v>
       </c>
       <c r="J2">
-        <v>1.021794426393935</v>
+        <v>1.003054940456324</v>
       </c>
       <c r="K2">
-        <v>1.024871731696536</v>
+        <v>1.013636407941179</v>
       </c>
       <c r="L2">
-        <v>1.020927201768244</v>
+        <v>1.001008316964117</v>
       </c>
       <c r="M2">
-        <v>1.017779172051364</v>
+        <v>0.9681513660725133</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01758499701192</v>
+        <v>0.9851794265822966</v>
       </c>
       <c r="D3">
-        <v>1.022738956851938</v>
+        <v>1.005567251192031</v>
       </c>
       <c r="E3">
-        <v>1.01893769224147</v>
+        <v>0.9933269617775675</v>
       </c>
       <c r="F3">
-        <v>1.016575723826187</v>
+        <v>0.963762857786735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02655242823776</v>
+        <v>1.036612985962714</v>
       </c>
       <c r="J3">
-        <v>1.022439219096827</v>
+        <v>1.006082434368431</v>
       </c>
       <c r="K3">
-        <v>1.025381386959106</v>
+        <v>1.016129390168663</v>
       </c>
       <c r="L3">
-        <v>1.021590562361069</v>
+        <v>1.004045943479249</v>
       </c>
       <c r="M3">
-        <v>1.019235123611414</v>
+        <v>0.9748814029521111</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018238117224918</v>
+        <v>0.9882821199686087</v>
       </c>
       <c r="D4">
-        <v>1.023193354322733</v>
+        <v>1.007691343971026</v>
       </c>
       <c r="E4">
-        <v>1.019492974428462</v>
+        <v>0.9958142553644653</v>
       </c>
       <c r="F4">
-        <v>1.017645160628615</v>
+        <v>0.9686229465953411</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026631240251872</v>
+        <v>1.037196145220992</v>
       </c>
       <c r="J4">
-        <v>1.022855740859572</v>
+        <v>1.007990395348233</v>
       </c>
       <c r="K4">
-        <v>1.025710143057602</v>
+        <v>1.017697819172308</v>
       </c>
       <c r="L4">
-        <v>1.022019413185946</v>
+        <v>1.005963462544755</v>
       </c>
       <c r="M4">
-        <v>1.020176446575417</v>
+        <v>0.9791154212270196</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018512652216644</v>
+        <v>0.9895691719470908</v>
       </c>
       <c r="D5">
-        <v>1.023384297700813</v>
+        <v>1.008572853297664</v>
       </c>
       <c r="E5">
-        <v>1.01972647432373</v>
+        <v>0.996847486598572</v>
       </c>
       <c r="F5">
-        <v>1.018094680237479</v>
+        <v>0.9706356584441801</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026664006033661</v>
+        <v>1.0374351198109</v>
       </c>
       <c r="J5">
-        <v>1.023030678983413</v>
+        <v>1.008780771439654</v>
       </c>
       <c r="K5">
-        <v>1.025848106794078</v>
+        <v>1.018346867992077</v>
       </c>
       <c r="L5">
-        <v>1.022199609524285</v>
+        <v>1.006758549617773</v>
       </c>
       <c r="M5">
-        <v>1.020571999226914</v>
+        <v>0.9808680264595769</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018558745720429</v>
+        <v>0.9897842796412891</v>
       </c>
       <c r="D6">
-        <v>1.023416352922965</v>
+        <v>1.008720203059752</v>
       </c>
       <c r="E6">
-        <v>1.019765683462125</v>
+        <v>0.9970202570254668</v>
       </c>
       <c r="F6">
-        <v>1.018170152560844</v>
+        <v>0.9709718642347455</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026669486040007</v>
+        <v>1.03747488651636</v>
       </c>
       <c r="J6">
-        <v>1.023060042048678</v>
+        <v>1.00891280468072</v>
       </c>
       <c r="K6">
-        <v>1.025871257127548</v>
+        <v>1.018455251669716</v>
       </c>
       <c r="L6">
-        <v>1.022229859863914</v>
+        <v>1.006891413768333</v>
       </c>
       <c r="M6">
-        <v>1.020638403905121</v>
+        <v>0.9811607336659091</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018241785718215</v>
+        <v>0.9882993846849304</v>
       </c>
       <c r="D7">
-        <v>1.023195906053109</v>
+        <v>1.007703167198743</v>
       </c>
       <c r="E7">
-        <v>1.019496094232499</v>
+        <v>0.9958281095897742</v>
       </c>
       <c r="F7">
-        <v>1.017651167404378</v>
+        <v>0.9686499580145927</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026631679511256</v>
+        <v>1.037199362507602</v>
       </c>
       <c r="J7">
-        <v>1.022858079049406</v>
+        <v>1.008001001867061</v>
       </c>
       <c r="K7">
-        <v>1.025711987499738</v>
+        <v>1.017706531853314</v>
       </c>
       <c r="L7">
-        <v>1.022021821341536</v>
+        <v>1.005974129322348</v>
       </c>
       <c r="M7">
-        <v>1.020181732667243</v>
+        <v>0.9791389452513558</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016916630497611</v>
+        <v>0.9819437006887071</v>
       </c>
       <c r="D8">
-        <v>1.02227375081335</v>
+        <v>1.003353681842365</v>
       </c>
       <c r="E8">
-        <v>1.018369757953472</v>
+        <v>0.990738221924249</v>
       </c>
       <c r="F8">
-        <v>1.015481267661749</v>
+        <v>0.9586814284018877</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026470541901546</v>
+        <v>1.035994786351827</v>
       </c>
       <c r="J8">
-        <v>1.022012482806205</v>
+        <v>1.004088965786482</v>
       </c>
       <c r="K8">
-        <v>1.025044184327718</v>
+        <v>1.014488416207254</v>
       </c>
       <c r="L8">
-        <v>1.021151468073679</v>
+        <v>1.002045128858294</v>
       </c>
       <c r="M8">
-        <v>1.018271381809822</v>
+        <v>0.9704517825961902</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014580293964472</v>
+        <v>0.9701272806431696</v>
       </c>
       <c r="D9">
-        <v>1.020646085865126</v>
+        <v>0.9952867052322887</v>
       </c>
       <c r="E9">
-        <v>1.016386895540633</v>
+        <v>0.9813279806095635</v>
       </c>
       <c r="F9">
-        <v>1.011654798108463</v>
+        <v>0.9399950589056686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026174872547915</v>
+        <v>1.033661050714429</v>
       </c>
       <c r="J9">
-        <v>1.02051703326557</v>
+        <v>0.9967808889891714</v>
       </c>
       <c r="K9">
-        <v>1.023859577264158</v>
+        <v>1.008456718043123</v>
       </c>
       <c r="L9">
-        <v>1.019614809869173</v>
+        <v>0.9947314413584627</v>
       </c>
       <c r="M9">
-        <v>1.014898893402669</v>
+        <v>0.9541429691401974</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013021841066643</v>
+        <v>0.9617768270802619</v>
       </c>
       <c r="D10">
-        <v>1.019559166275683</v>
+        <v>0.9896047169126003</v>
       </c>
       <c r="E10">
-        <v>1.015066243486943</v>
+        <v>0.9747175015384593</v>
       </c>
       <c r="F10">
-        <v>1.009101476840297</v>
+        <v>0.9266452860190479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025969883242132</v>
+        <v>1.031950962578959</v>
       </c>
       <c r="J10">
-        <v>1.019516401444701</v>
+        <v>0.9915935654133694</v>
       </c>
       <c r="K10">
-        <v>1.023064553125041</v>
+        <v>1.004164232696492</v>
       </c>
       <c r="L10">
-        <v>1.018588341998398</v>
+        <v>0.9895587529035739</v>
       </c>
       <c r="M10">
-        <v>1.012646016316115</v>
+        <v>0.9424785719391374</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012346787360823</v>
+        <v>0.9580341576590217</v>
       </c>
       <c r="D11">
-        <v>1.019088090513704</v>
+        <v>0.9870638357927901</v>
       </c>
       <c r="E11">
-        <v>1.014494680898912</v>
+        <v>0.9717649711941223</v>
       </c>
       <c r="F11">
-        <v>1.007995207076624</v>
+        <v>0.92061689508941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02587925339289</v>
+        <v>1.031170754648403</v>
       </c>
       <c r="J11">
-        <v>1.01908223903227</v>
+        <v>0.9892633288279025</v>
       </c>
       <c r="K11">
-        <v>1.022719042840219</v>
+        <v>1.002233903327469</v>
       </c>
       <c r="L11">
-        <v>1.018143383010055</v>
+        <v>0.9872397526615863</v>
       </c>
       <c r="M11">
-        <v>1.011669331470965</v>
+        <v>0.9372090220367412</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012096005985239</v>
+        <v>0.9566234988718825</v>
       </c>
       <c r="D12">
-        <v>1.018913047064612</v>
+        <v>0.9861071342657066</v>
       </c>
       <c r="E12">
-        <v>1.014282420028335</v>
+        <v>0.9706537511825392</v>
       </c>
       <c r="F12">
-        <v>1.007584180848626</v>
+        <v>0.9183368923168211</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025845308785465</v>
+        <v>1.030874680993441</v>
       </c>
       <c r="J12">
-        <v>1.01892083842139</v>
+        <v>0.9883842481585585</v>
       </c>
       <c r="K12">
-        <v>1.022590515406041</v>
+        <v>1.00150542922011</v>
       </c>
       <c r="L12">
-        <v>1.017978030978306</v>
+        <v>0.9863656352959738</v>
       </c>
       <c r="M12">
-        <v>1.011306363467904</v>
+        <v>0.9352157747116702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012149801108823</v>
+        <v>0.9569270402073647</v>
       </c>
       <c r="D13">
-        <v>1.018950597416832</v>
+        <v>0.9863129478182581</v>
       </c>
       <c r="E13">
-        <v>1.014327948770025</v>
+        <v>0.9708927854293448</v>
       </c>
       <c r="F13">
-        <v>1.007672352411251</v>
+        <v>0.918827868534705</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025852602718548</v>
+        <v>1.030938478702125</v>
       </c>
       <c r="J13">
-        <v>1.018955465448314</v>
+        <v>0.9885734414894261</v>
       </c>
       <c r="K13">
-        <v>1.022618093558412</v>
+        <v>1.001662220194471</v>
       </c>
       <c r="L13">
-        <v>1.018013502929098</v>
+        <v>0.9865537273100493</v>
       </c>
       <c r="M13">
-        <v>1.01138422977092</v>
+        <v>0.9356450105474999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012326058443739</v>
+        <v>0.9579179782817646</v>
       </c>
       <c r="D14">
-        <v>1.019073622692163</v>
+        <v>0.9869850227586172</v>
       </c>
       <c r="E14">
-        <v>1.014477134475953</v>
+        <v>0.9716734195810769</v>
       </c>
       <c r="F14">
-        <v>1.007961233780678</v>
+        <v>0.9204292836231653</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02587645324605</v>
+        <v>1.031146410862945</v>
       </c>
       <c r="J14">
-        <v>1.019068900332674</v>
+        <v>0.9891909452062631</v>
       </c>
       <c r="K14">
-        <v>1.022708422590504</v>
+        <v>1.00217392559631</v>
       </c>
       <c r="L14">
-        <v>1.018129716481771</v>
+        <v>0.9871677628646157</v>
       </c>
       <c r="M14">
-        <v>1.011639332214027</v>
+        <v>0.9370450108750911</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012434651545663</v>
+        <v>0.9585257716598973</v>
       </c>
       <c r="D15">
-        <v>1.019149414020556</v>
+        <v>0.9873973747627242</v>
       </c>
       <c r="E15">
-        <v>1.014569058388275</v>
+        <v>0.9721524392730208</v>
       </c>
       <c r="F15">
-        <v>1.008139208510017</v>
+        <v>0.9214104492332479</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02589111115538</v>
+        <v>1.031273684384181</v>
       </c>
       <c r="J15">
-        <v>1.019138773612734</v>
+        <v>0.9895695887856001</v>
       </c>
       <c r="K15">
-        <v>1.022764052164874</v>
+        <v>1.002487662943472</v>
       </c>
       <c r="L15">
-        <v>1.018201309603701</v>
+        <v>0.9875443759522879</v>
       </c>
       <c r="M15">
-        <v>1.011796484677385</v>
+        <v>0.9379027427547397</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013066637129772</v>
+        <v>0.9620224261851286</v>
       </c>
       <c r="D16">
-        <v>1.019590420914886</v>
+        <v>0.9897715830878279</v>
       </c>
       <c r="E16">
-        <v>1.015104182255978</v>
+        <v>0.9749114709806922</v>
       </c>
       <c r="F16">
-        <v>1.009174881589792</v>
+        <v>0.9270398553751499</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025975858689142</v>
+        <v>1.032001880412026</v>
       </c>
       <c r="J16">
-        <v>1.019545196717251</v>
+        <v>0.9917463697635073</v>
       </c>
       <c r="K16">
-        <v>1.023087456941997</v>
+        <v>1.004290774671294</v>
       </c>
       <c r="L16">
-        <v>1.018617862052851</v>
+        <v>0.9897109191685243</v>
       </c>
       <c r="M16">
-        <v>1.012710810306764</v>
+        <v>0.9428234347679937</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013463001596714</v>
+        <v>0.9641808723418117</v>
       </c>
       <c r="D17">
-        <v>1.019866937144499</v>
+        <v>0.9912387552173603</v>
       </c>
       <c r="E17">
-        <v>1.01543992826175</v>
+        <v>0.9766173459225299</v>
       </c>
       <c r="F17">
-        <v>1.009824347977968</v>
+        <v>0.9305023052117758</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026028518441906</v>
+        <v>1.032447819468292</v>
       </c>
       <c r="J17">
-        <v>1.019799898423503</v>
+        <v>0.9930886922802208</v>
       </c>
       <c r="K17">
-        <v>1.023289982784614</v>
+        <v>1.005402164674597</v>
       </c>
       <c r="L17">
-        <v>1.018879022363394</v>
+        <v>0.9910481671228137</v>
       </c>
       <c r="M17">
-        <v>1.013284023073536</v>
+        <v>0.9458494545075443</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013694171861702</v>
+        <v>0.9654277187556627</v>
       </c>
       <c r="D18">
-        <v>1.020028182660723</v>
+        <v>0.9920868192354289</v>
       </c>
       <c r="E18">
-        <v>1.015635791087851</v>
+        <v>0.9776037267629974</v>
       </c>
       <c r="F18">
-        <v>1.010203107162639</v>
+        <v>0.9324982420598928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026059053736506</v>
+        <v>1.032704116899098</v>
       </c>
       <c r="J18">
-        <v>1.019948376552272</v>
+        <v>0.9938635979090482</v>
       </c>
       <c r="K18">
-        <v>1.023407991170436</v>
+        <v>1.00604355693843</v>
       </c>
       <c r="L18">
-        <v>1.01903130535936</v>
+        <v>0.9918205815759954</v>
       </c>
       <c r="M18">
-        <v>1.013618255584452</v>
+        <v>0.947593594366508</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013772991184794</v>
+        <v>0.9658508425334063</v>
       </c>
       <c r="D19">
-        <v>1.020083156136956</v>
+        <v>0.9923747020452144</v>
       </c>
       <c r="E19">
-        <v>1.015702579988222</v>
+        <v>0.977938621807509</v>
       </c>
       <c r="F19">
-        <v>1.010332243731739</v>
+        <v>0.9331748939544899</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026069434909006</v>
+        <v>1.032790869865811</v>
       </c>
       <c r="J19">
-        <v>1.019998989352903</v>
+        <v>0.9941264811379031</v>
       </c>
       <c r="K19">
-        <v>1.023448208378639</v>
+        <v>1.006261111106491</v>
       </c>
       <c r="L19">
-        <v>1.019083221904484</v>
+        <v>0.9920826933697631</v>
       </c>
       <c r="M19">
-        <v>1.013732201324003</v>
+        <v>0.9481848443216981</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013420477769123</v>
+        <v>0.9639505567459564</v>
       </c>
       <c r="D20">
-        <v>1.019837273885157</v>
+        <v>0.9910821448400287</v>
       </c>
       <c r="E20">
-        <v>1.015403903013792</v>
+        <v>0.9764352207564584</v>
       </c>
       <c r="F20">
-        <v>1.009754673016978</v>
+        <v>0.9301332877543401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02602288719253</v>
+        <v>1.032400370719304</v>
       </c>
       <c r="J20">
-        <v>1.019772580145495</v>
+        <v>0.9929455124091667</v>
       </c>
       <c r="K20">
-        <v>1.023268266248874</v>
+        <v>1.005283637700425</v>
       </c>
       <c r="L20">
-        <v>1.018851007240016</v>
+        <v>0.9909054828566826</v>
       </c>
       <c r="M20">
-        <v>1.013222534488014</v>
+        <v>0.9455269722951088</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012274156066409</v>
+        <v>0.9576267486618334</v>
       </c>
       <c r="D21">
-        <v>1.019037396607302</v>
+        <v>0.9867874765690808</v>
       </c>
       <c r="E21">
-        <v>1.014433201822409</v>
+        <v>0.9714439514130314</v>
       </c>
       <c r="F21">
-        <v>1.007876168477913</v>
+        <v>0.9199588636219087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025869437607231</v>
+        <v>1.031085355678032</v>
       </c>
       <c r="J21">
-        <v>1.019035500274498</v>
+        <v>0.9890094868302363</v>
       </c>
       <c r="K21">
-        <v>1.022681828176307</v>
+        <v>1.002023563555615</v>
       </c>
       <c r="L21">
-        <v>1.018095496547077</v>
+        <v>0.9869873035120257</v>
       </c>
       <c r="M21">
-        <v>1.011564216034856</v>
+        <v>0.9366337630128078</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011553207013932</v>
+        <v>0.9535315094734947</v>
       </c>
       <c r="D22">
-        <v>1.018534106318378</v>
+        <v>0.9840121205029876</v>
       </c>
       <c r="E22">
-        <v>1.013823131584085</v>
+        <v>0.9682211804300624</v>
       </c>
       <c r="F22">
-        <v>1.006694446813995</v>
+        <v>0.9133236918062462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025771334037443</v>
+        <v>1.030222105332345</v>
       </c>
       <c r="J22">
-        <v>1.018571296915223</v>
+        <v>0.9864559711619164</v>
       </c>
       <c r="K22">
-        <v>1.022312014567588</v>
+        <v>0.9999070960418124</v>
       </c>
       <c r="L22">
-        <v>1.017620045934155</v>
+        <v>0.9844496090595836</v>
       </c>
       <c r="M22">
-        <v>1.01052049852883</v>
+        <v>0.9308327367028388</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011935416200788</v>
+        <v>0.9557142816845614</v>
       </c>
       <c r="D23">
-        <v>1.018800945628863</v>
+        <v>0.9854908018837042</v>
       </c>
       <c r="E23">
-        <v>1.014146517982557</v>
+        <v>0.9699380009643368</v>
       </c>
       <c r="F23">
-        <v>1.007320962519004</v>
+        <v>0.9168650021153637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025823494501011</v>
+        <v>1.030683294786982</v>
       </c>
       <c r="J23">
-        <v>1.01881745334963</v>
+        <v>0.9878174302906444</v>
       </c>
       <c r="K23">
-        <v>1.02250816381488</v>
+        <v>1.001035654315017</v>
       </c>
       <c r="L23">
-        <v>1.01787213235877</v>
+        <v>0.9858022251364954</v>
       </c>
       <c r="M23">
-        <v>1.011073896521112</v>
+        <v>0.9339289463782472</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013439692525261</v>
+        <v>0.9640546638586609</v>
       </c>
       <c r="D24">
-        <v>1.019850677563984</v>
+        <v>0.9911529341037942</v>
       </c>
       <c r="E24">
-        <v>1.015420181186343</v>
+        <v>0.9765175418684596</v>
       </c>
       <c r="F24">
-        <v>1.009786156327183</v>
+        <v>0.9303001036865779</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026025432268605</v>
+        <v>1.032421822522334</v>
       </c>
       <c r="J24">
-        <v>1.019784924361976</v>
+        <v>0.9930102340359002</v>
       </c>
       <c r="K24">
-        <v>1.023278079391863</v>
+        <v>1.005337216094584</v>
       </c>
       <c r="L24">
-        <v>1.018863666214571</v>
+        <v>0.9909699790963974</v>
       </c>
       <c r="M24">
-        <v>1.013250318879863</v>
+        <v>0.9456727524462215</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015184446388862</v>
+        <v>0.9732608701021009</v>
       </c>
       <c r="D25">
-        <v>1.021067196074201</v>
+        <v>0.9974231700225691</v>
       </c>
       <c r="E25">
-        <v>1.016899290678068</v>
+        <v>0.9838169694378675</v>
       </c>
       <c r="F25">
-        <v>1.012644412586164</v>
+        <v>0.944972082405807</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026252698885156</v>
+        <v>1.034290593354257</v>
       </c>
       <c r="J25">
-        <v>1.020904286338894</v>
+        <v>0.9987228816859457</v>
       </c>
       <c r="K25">
-        <v>1.024166757786121</v>
+        <v>1.010061620098242</v>
       </c>
       <c r="L25">
-        <v>1.020012428806697</v>
+        <v>0.9966718107649652</v>
       </c>
       <c r="M25">
-        <v>1.015771536848917</v>
+        <v>0.9584892548879989</v>
       </c>
     </row>
   </sheetData>
